--- a/sales-report.xlsx
+++ b/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
   <si>
     <t>User</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>345.00</t>
+  </si>
+  <si>
+    <t>"671567d63f27b31d42627b6d"</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>"67156cf93d6ace99e88df3bc"</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -662,6 +671,64 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>449.1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>449.1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/sales-report.xlsx
+++ b/sales-report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
   <si>
     <t>User</t>
   </si>
@@ -43,7 +43,7 @@
     <t>"67015b3bfdb8be9bdeefb9ce"</t>
   </si>
   <si>
-    <t>"6714e1fe257d1937413535f5"</t>
+    <t>"671567d63f27b31d42627b6d"</t>
   </si>
   <si>
     <t>49.90</t>
@@ -58,37 +58,46 @@
     <t>paid</t>
   </si>
   <si>
-    <t>20/10/2024</t>
-  </si>
-  <si>
-    <t>"6714e54c7bde859d429a4851"</t>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>"67156cf93d6ace99e88df3bc"</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>"6715d8b6936254b8fb732a91"</t>
+  </si>
+  <si>
+    <t>"6715f3ae263bec93bfb41a27"</t>
+  </si>
+  <si>
+    <t>"6716315b65db7f5c5ce79238"</t>
+  </si>
+  <si>
+    <t>"6716338965db7f5c5ce79d5a"</t>
+  </si>
+  <si>
+    <t>"671638535b9576b0e884785a"</t>
+  </si>
+  <si>
+    <t>"671639395b9576b0e8847d1e"</t>
   </si>
   <si>
     <t>200.00</t>
   </si>
   <si>
-    <t>"6714e75f04c9cb4fceb22a49"</t>
-  </si>
-  <si>
-    <t>"6714e7c88df801102a43cbd1"</t>
-  </si>
-  <si>
-    <t>"6714e81961c2ac65f01b1400"</t>
-  </si>
-  <si>
-    <t>"6714ea4779ac22ff180bd4a8"</t>
-  </si>
-  <si>
-    <t>345.00</t>
-  </si>
-  <si>
-    <t>"671567d63f27b31d42627b6d"</t>
-  </si>
-  <si>
-    <t>21/10/2024</t>
-  </si>
-  <si>
-    <t>"67156cf93d6ace99e88df3bc"</t>
+    <t>"671639615b9576b0e8847dd0"</t>
+  </si>
+  <si>
+    <t>"671655b28b977fd7c5da2254"</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>"671655dd8b977fd7c5da2322"</t>
   </si>
 </sst>
 </file>
@@ -465,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,19 +543,19 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>449.1</v>
+      </c>
+      <c r="G3" t="s">
         <v>17</v>
-      </c>
-      <c r="F3">
-        <v>698.2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -563,19 +572,19 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>449.1</v>
+      </c>
+      <c r="G4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4">
-        <v>698.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -592,19 +601,19 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>449.1</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5">
-        <v>698.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -627,13 +636,13 @@
         <v>11</v>
       </c>
       <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>898.2</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
-      </c>
-      <c r="F6">
-        <v>698.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -653,16 +662,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
       <c r="F7">
-        <v>1155</v>
+        <v>449.1</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -676,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -688,16 +697,16 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>449.1</v>
+        <v>898.2</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,19 +714,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F9">
-        <v>449.1</v>
+        <v>600</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -726,7 +735,94 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>700</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>798.2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
